--- a/xlsx/美国联邦政府_intext.xlsx
+++ b/xlsx/美国联邦政府_intext.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="760">
   <si>
     <t>美国联邦政府</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD</t>
@@ -29,7 +29,7 @@
     <t>美利坚合众国</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国联邦政府</t>
+    <t>政策_政策_美国_美国联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納·川普</t>
+    <t>唐纳·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%B1%E5%92%8C%E5%85%9A</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%C2%B7%E5%BD%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>麥克·彭斯</t>
+    <t>麦克·彭斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E8%A1%8C%E6%94%BF%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國眾議院</t>
+    <t>美国众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E9%95%B7</t>
   </si>
   <si>
-    <t>美國眾議院議長</t>
+    <t>美国众议院议长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%90%8A%E6%81%A9</t>
   </si>
   <si>
-    <t>保羅·萊恩</t>
+    <t>保罗·莱恩</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Party_leaders_of_the_United_States_House_of_Representatives</t>
@@ -143,19 +143,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
   </si>
   <si>
-    <t>參議院臨時議長</t>
+    <t>参议院临时议长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%C2%B7%E5%93%88%E5%A5%87</t>
   </si>
   <si>
-    <t>奧林·哈奇</t>
+    <t>奥林·哈奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E6%94%BF%E5%85%9A%E9%A2%86%E8%A2%96</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%A0%BC%E6%B4%9B%E4%BD%9B%C2%B7%E7%BE%85%E4%BC%AF%E8%8C%A8</t>
   </si>
   <si>
-    <t>約翰·格洛佛·羅伯茨</t>
+    <t>约翰·格洛佛·罗伯茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
   </si>
   <si>
-    <t>美國最高法院大法官</t>
+    <t>美国最高法院大法官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E6%9C%9F%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國中期選舉</t>
+    <t>美国中期选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>州長 (美國)</t>
+    <t>州长 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/State_legislature_(United_States)</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E5%85%B3%E7%B3%BB</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>Template talk-美國政治</t>
+    <t>Template talk-美国政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95</t>
@@ -329,13 +329,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
   </si>
   <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E5%88%B6</t>
   </si>
   <si>
-    <t>多數制</t>
+    <t>多数制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E5%93%A1%E8%B3%87%E6%AD%B7</t>
   </si>
   <si>
-    <t>美國參議員資歷</t>
+    <t>美国参议员资历</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dean_of_the_United_States_Senate</t>
@@ -575,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
   </si>
   <si>
-    <t>美國參議院臨時議長</t>
+    <t>美国参议院临时议长</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_Presidents_pro_tempore_of_the_United_States_Senate</t>
@@ -839,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國國會法案</t>
+    <t>美国国会法案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_United_States_federal_legislation</t>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%AF%E8%AB%96%E7%B5%82%E7%B5%90</t>
   </si>
   <si>
-    <t>辯論終結</t>
+    <t>辩论终结</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Concurrent_resolution</t>
@@ -947,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E8%81%AF%E5%B8%AD%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>美國國會聯席會議</t>
+    <t>美国国会联席会议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_joint_sessions_of_the_United_States_Congress</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%96%AF%E7%89%B9%E7%88%BE%E7%89%B9%E8%A6%8F%E5%89%87</t>
   </si>
   <si>
-    <t>哈斯特爾特規則</t>
+    <t>哈斯特尔特规则</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Multiple_referral</t>
@@ -1037,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%A2%8B%E5%90%A6%E6%B1%BA</t>
   </si>
   <si>
-    <t>口袋否決</t>
+    <t>口袋否决</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Advice_and_consent</t>
@@ -1175,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E8%81%BD%E8%AD%89%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會聽證會</t>
+    <t>美国国会听证会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Markup_(legislation)</t>
@@ -1265,7 +1262,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%88%A9%E8%A0%91%E8%9E%88</t>
   </si>
   <si>
-    <t>傑利蠑螈</t>
+    <t>杰利蝾螈</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Party_divisions_of_United_States_Congresses</t>
@@ -1397,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>國會圖書館 (美國)</t>
+    <t>国会图书馆 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Government_Publishing_Office</t>
@@ -1601,7 +1598,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%91%97%E4%BD%9C%E6%AC%8A%E5%B1%80</t>
   </si>
   <si>
-    <t>美國著作權局</t>
+    <t>美国着作权局</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Register_of_Copyrights</t>
@@ -1697,9 +1694,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>美國國會大廈</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Brumidi_Corridors</t>
   </si>
   <si>
@@ -1937,31 +1931,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E5%9C%B0%E9%90%B5</t>
   </si>
   <si>
-    <t>美國國會地鐵</t>
+    <t>美国国会地铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%86%9B%E7%BB%9F%E5%B8%85</t>
@@ -1973,13 +1964,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%89%AF%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國副總統</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E8%BE%A6%E4%BA%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國總統辦事機構</t>
+    <t>美国总统办事机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AB%E5%8A%9E%E5%85%AC%E5%8E%85</t>
@@ -1997,13 +1985,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E7%B6%93%E6%BF%9F%E9%A1%A7%E5%95%8F%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>美國總統經濟顧問委員會</t>
+    <t>美国总统经济顾问委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>美國國家安全會議</t>
+    <t>美国国家安全会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%B8%E6%98%93%E4%BB%A3%E8%A1%A8%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
@@ -2021,25 +2009,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E9%99%A2</t>
   </si>
   <si>
-    <t>美國國務院</t>
+    <t>美国国务院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E9%83%A8</t>
   </si>
   <si>
-    <t>美國戰爭部</t>
+    <t>美国战争部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%B2%A1%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國財政部</t>
+    <t>美国财政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E7%B9%BC%E4%BB%BB%E9%A0%86%E5%BA%8F</t>
   </si>
   <si>
-    <t>美國總統繼任順序</t>
+    <t>美国总统继任顺序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
@@ -2051,9 +2039,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2</t>
   </si>
   <si>
-    <t>美国国务院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E5%8D%BF</t>
   </si>
   <si>
@@ -2063,9 +2048,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美国财政部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8%E9%95%BF</t>
   </si>
   <si>
@@ -2087,7 +2069,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國司法部長</t>
+    <t>美国司法部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8</t>
@@ -2111,7 +2093,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8B%9E%E5%B7%A5%E9%83%A8</t>
   </si>
   <si>
-    <t>美國勞工部</t>
+    <t>美国劳工部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E5%8F%8A%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8A%A1%E9%83%A8</t>
@@ -2123,43 +2105,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%8F%E6%88%BF%E5%8F%8A%E5%9F%8E%E5%B8%82%E7%99%BC%E5%B1%95%E9%83%A8</t>
   </si>
   <si>
-    <t>美國住房及城市發展部</t>
+    <t>美国住房及城市发展部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E8%BC%B8%E9%83%A8</t>
   </si>
   <si>
-    <t>美國運輸部</t>
+    <t>美国运输部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
   </si>
   <si>
-    <t>美國能源部</t>
+    <t>美国能源部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國教育部</t>
+    <t>美国教育部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>美國退伍軍人事務部</t>
+    <t>美国退伍军人事务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國土安全部</t>
+    <t>美国国土安全部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E9%83%A8</t>
   </si>
   <si>
-    <t>美國空軍部</t>
+    <t>美国空军部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E9%83%A8</t>
@@ -2189,19 +2171,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國郵政部</t>
+    <t>美国邮政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>中央情報局</t>
+    <t>中央情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>美國國家情報總監</t>
+    <t>美国国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E5%B1%80</t>
@@ -2219,19 +2201,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國聯邦儲備理事會</t>
+    <t>美国联邦储备理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E7%A9%BA%E7%B8%BD%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國太空總署</t>
+    <t>美国太空总署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%99%85%E5%AE%97%E6%95%99%E8%87%AA%E7%94%B1%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -2243,7 +2225,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E7%A7%91%E5%AD%B8%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>美國國家科學基金</t>
+    <t>美国国家科学基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%81%E5%88%B8%E4%BA%A4%E6%98%93%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -2261,25 +2243,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%9A%9B%E8%B2%BF%E6%98%93%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國際貿易委員會</t>
+    <t>美国国际贸易委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF</t>
   </si>
   <si>
-    <t>美國郵政</t>
+    <t>美国邮政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E5%9C%8B%E9%83%B5%E6%94%BF%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>萬國郵政聯盟</t>
+    <t>万国邮政联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E9%81%8B%E8%BC%B8%E5%AE%89%E5%85%A8%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國家運輸安全委員會</t>
+    <t>美国国家运输安全委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
@@ -2291,9 +2273,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8A%B3%E5%B7%A5%E9%83%A8</t>
   </si>
   <si>
-    <t>美国劳工部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E6%96%B9%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
@@ -2303,28 +2282,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
   </si>
   <si>
     <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2673,7 +2643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I407"/>
+  <dimension ref="A1:I405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,7 +2900,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -4261,7 +4231,7 @@
         <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="G55" t="n">
         <v>16</v>
@@ -4287,10 +4257,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4316,10 +4286,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4345,10 +4315,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4374,10 +4344,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4403,10 +4373,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
         <v>113</v>
-      </c>
-      <c r="F60" t="s">
-        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -4432,10 +4402,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
         <v>115</v>
-      </c>
-      <c r="F61" t="s">
-        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -4461,10 +4431,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4490,10 +4460,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -4519,10 +4489,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4548,10 +4518,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4577,10 +4547,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4606,10 +4576,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4635,10 +4605,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4664,10 +4634,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4693,10 +4663,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4722,10 +4692,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4751,10 +4721,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4780,10 +4750,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4809,10 +4779,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4838,10 +4808,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4867,10 +4837,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4896,10 +4866,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4925,10 +4895,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4954,10 +4924,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4983,10 +4953,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5012,10 +4982,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5041,10 +5011,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5070,10 +5040,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5099,10 +5069,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5128,10 +5098,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -5157,10 +5127,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5186,10 +5156,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5215,10 +5185,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5244,10 +5214,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5273,10 +5243,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5302,10 +5272,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5331,10 +5301,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5360,10 +5330,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5389,10 +5359,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5418,10 +5388,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5447,10 +5417,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -5476,10 +5446,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5563,10 +5533,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" t="s">
         <v>189</v>
-      </c>
-      <c r="F100" t="s">
-        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5592,10 +5562,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" t="s">
         <v>191</v>
-      </c>
-      <c r="F101" t="s">
-        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5621,10 +5591,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" t="s">
         <v>193</v>
-      </c>
-      <c r="F102" t="s">
-        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5650,10 +5620,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" t="s">
         <v>195</v>
-      </c>
-      <c r="F103" t="s">
-        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5679,10 +5649,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" t="s">
         <v>197</v>
-      </c>
-      <c r="F104" t="s">
-        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5708,10 +5678,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" t="s">
         <v>199</v>
-      </c>
-      <c r="F105" t="s">
-        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5737,10 +5707,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>200</v>
+      </c>
+      <c r="F106" t="s">
         <v>201</v>
-      </c>
-      <c r="F106" t="s">
-        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5766,10 +5736,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" t="s">
         <v>203</v>
-      </c>
-      <c r="F107" t="s">
-        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5795,10 +5765,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" t="s">
         <v>205</v>
-      </c>
-      <c r="F108" t="s">
-        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5824,10 +5794,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>206</v>
+      </c>
+      <c r="F109" t="s">
         <v>207</v>
-      </c>
-      <c r="F109" t="s">
-        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5853,10 +5823,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>208</v>
+      </c>
+      <c r="F110" t="s">
         <v>209</v>
-      </c>
-      <c r="F110" t="s">
-        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5882,10 +5852,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" t="s">
         <v>211</v>
-      </c>
-      <c r="F111" t="s">
-        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5911,10 +5881,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>212</v>
+      </c>
+      <c r="F112" t="s">
         <v>213</v>
-      </c>
-      <c r="F112" t="s">
-        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5940,10 +5910,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" t="s">
         <v>215</v>
-      </c>
-      <c r="F113" t="s">
-        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5969,10 +5939,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>216</v>
+      </c>
+      <c r="F114" t="s">
         <v>217</v>
-      </c>
-      <c r="F114" t="s">
-        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5998,10 +5968,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" t="s">
         <v>219</v>
-      </c>
-      <c r="F115" t="s">
-        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6027,10 +5997,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" t="s">
         <v>221</v>
-      </c>
-      <c r="F116" t="s">
-        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6056,10 +6026,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>222</v>
+      </c>
+      <c r="F117" t="s">
         <v>223</v>
-      </c>
-      <c r="F117" t="s">
-        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6085,10 +6055,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>224</v>
+      </c>
+      <c r="F118" t="s">
         <v>225</v>
-      </c>
-      <c r="F118" t="s">
-        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6114,10 +6084,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" t="s">
         <v>227</v>
-      </c>
-      <c r="F119" t="s">
-        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6143,10 +6113,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>228</v>
+      </c>
+      <c r="F120" t="s">
         <v>229</v>
-      </c>
-      <c r="F120" t="s">
-        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6172,10 +6142,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>230</v>
+      </c>
+      <c r="F121" t="s">
         <v>231</v>
-      </c>
-      <c r="F121" t="s">
-        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6201,10 +6171,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6230,10 +6200,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -6259,10 +6229,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
-      </c>
-      <c r="F124" t="s">
-        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6288,10 +6258,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
         <v>239</v>
-      </c>
-      <c r="F125" t="s">
-        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6317,10 +6287,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -6346,10 +6316,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6375,10 +6345,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
         <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6404,10 +6374,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
         <v>247</v>
-      </c>
-      <c r="F129" t="s">
-        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6433,10 +6403,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" t="s">
         <v>249</v>
-      </c>
-      <c r="F130" t="s">
-        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6462,10 +6432,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
-      </c>
-      <c r="F131" t="s">
-        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6491,10 +6461,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" t="s">
         <v>253</v>
-      </c>
-      <c r="F132" t="s">
-        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6520,10 +6490,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
         <v>255</v>
-      </c>
-      <c r="F133" t="s">
-        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6549,10 +6519,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="s">
         <v>257</v>
-      </c>
-      <c r="F134" t="s">
-        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6578,10 +6548,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F135" t="s">
         <v>259</v>
-      </c>
-      <c r="F135" t="s">
-        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6607,10 +6577,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" t="s">
         <v>261</v>
-      </c>
-      <c r="F136" t="s">
-        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6636,10 +6606,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>262</v>
+      </c>
+      <c r="F137" t="s">
         <v>263</v>
-      </c>
-      <c r="F137" t="s">
-        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6665,10 +6635,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>264</v>
+      </c>
+      <c r="F138" t="s">
         <v>265</v>
-      </c>
-      <c r="F138" t="s">
-        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6694,10 +6664,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>266</v>
+      </c>
+      <c r="F139" t="s">
         <v>267</v>
-      </c>
-      <c r="F139" t="s">
-        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6723,10 +6693,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>268</v>
+      </c>
+      <c r="F140" t="s">
         <v>269</v>
-      </c>
-      <c r="F140" t="s">
-        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6752,10 +6722,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>270</v>
+      </c>
+      <c r="F141" t="s">
         <v>271</v>
-      </c>
-      <c r="F141" t="s">
-        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6781,10 +6751,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" t="s">
         <v>273</v>
-      </c>
-      <c r="F142" t="s">
-        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6810,10 +6780,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>274</v>
+      </c>
+      <c r="F143" t="s">
         <v>275</v>
-      </c>
-      <c r="F143" t="s">
-        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6839,10 +6809,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>276</v>
+      </c>
+      <c r="F144" t="s">
         <v>277</v>
-      </c>
-      <c r="F144" t="s">
-        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6868,10 +6838,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>278</v>
+      </c>
+      <c r="F145" t="s">
         <v>279</v>
-      </c>
-      <c r="F145" t="s">
-        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6897,10 +6867,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>280</v>
+      </c>
+      <c r="F146" t="s">
         <v>281</v>
-      </c>
-      <c r="F146" t="s">
-        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6926,10 +6896,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>282</v>
+      </c>
+      <c r="F147" t="s">
         <v>283</v>
-      </c>
-      <c r="F147" t="s">
-        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6955,10 +6925,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>284</v>
+      </c>
+      <c r="F148" t="s">
         <v>285</v>
-      </c>
-      <c r="F148" t="s">
-        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6984,10 +6954,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>286</v>
+      </c>
+      <c r="F149" t="s">
         <v>287</v>
-      </c>
-      <c r="F149" t="s">
-        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7013,10 +6983,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>288</v>
+      </c>
+      <c r="F150" t="s">
         <v>289</v>
-      </c>
-      <c r="F150" t="s">
-        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7042,10 +7012,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>290</v>
+      </c>
+      <c r="F151" t="s">
         <v>291</v>
-      </c>
-      <c r="F151" t="s">
-        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7071,10 +7041,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>292</v>
+      </c>
+      <c r="F152" t="s">
         <v>293</v>
-      </c>
-      <c r="F152" t="s">
-        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -7100,10 +7070,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>294</v>
+      </c>
+      <c r="F153" t="s">
         <v>295</v>
-      </c>
-      <c r="F153" t="s">
-        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7129,10 +7099,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>296</v>
+      </c>
+      <c r="F154" t="s">
         <v>297</v>
-      </c>
-      <c r="F154" t="s">
-        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7158,10 +7128,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>298</v>
+      </c>
+      <c r="F155" t="s">
         <v>299</v>
-      </c>
-      <c r="F155" t="s">
-        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>4</v>
@@ -7187,10 +7157,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>300</v>
+      </c>
+      <c r="F156" t="s">
         <v>301</v>
-      </c>
-      <c r="F156" t="s">
-        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7216,10 +7186,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>302</v>
+      </c>
+      <c r="F157" t="s">
         <v>303</v>
-      </c>
-      <c r="F157" t="s">
-        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7245,10 +7215,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>304</v>
+      </c>
+      <c r="F158" t="s">
         <v>305</v>
-      </c>
-      <c r="F158" t="s">
-        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7274,10 +7244,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>306</v>
+      </c>
+      <c r="F159" t="s">
         <v>307</v>
-      </c>
-      <c r="F159" t="s">
-        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7303,10 +7273,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>308</v>
+      </c>
+      <c r="F160" t="s">
         <v>309</v>
-      </c>
-      <c r="F160" t="s">
-        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7332,10 +7302,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>310</v>
+      </c>
+      <c r="F161" t="s">
         <v>311</v>
-      </c>
-      <c r="F161" t="s">
-        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7361,10 +7331,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>312</v>
+      </c>
+      <c r="F162" t="s">
         <v>313</v>
-      </c>
-      <c r="F162" t="s">
-        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7390,10 +7360,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>314</v>
+      </c>
+      <c r="F163" t="s">
         <v>315</v>
-      </c>
-      <c r="F163" t="s">
-        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7419,10 +7389,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>316</v>
+      </c>
+      <c r="F164" t="s">
         <v>317</v>
-      </c>
-      <c r="F164" t="s">
-        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7448,10 +7418,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>318</v>
+      </c>
+      <c r="F165" t="s">
         <v>319</v>
-      </c>
-      <c r="F165" t="s">
-        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7477,10 +7447,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>320</v>
+      </c>
+      <c r="F166" t="s">
         <v>321</v>
-      </c>
-      <c r="F166" t="s">
-        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7506,10 +7476,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>322</v>
+      </c>
+      <c r="F167" t="s">
         <v>323</v>
-      </c>
-      <c r="F167" t="s">
-        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7535,10 +7505,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>324</v>
+      </c>
+      <c r="F168" t="s">
         <v>325</v>
-      </c>
-      <c r="F168" t="s">
-        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7564,10 +7534,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>326</v>
+      </c>
+      <c r="F169" t="s">
         <v>327</v>
-      </c>
-      <c r="F169" t="s">
-        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7593,10 +7563,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>328</v>
+      </c>
+      <c r="F170" t="s">
         <v>329</v>
-      </c>
-      <c r="F170" t="s">
-        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7622,10 +7592,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>330</v>
+      </c>
+      <c r="F171" t="s">
         <v>331</v>
-      </c>
-      <c r="F171" t="s">
-        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7651,10 +7621,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>332</v>
+      </c>
+      <c r="F172" t="s">
         <v>333</v>
-      </c>
-      <c r="F172" t="s">
-        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7680,10 +7650,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>334</v>
+      </c>
+      <c r="F173" t="s">
         <v>335</v>
-      </c>
-      <c r="F173" t="s">
-        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7709,10 +7679,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>336</v>
+      </c>
+      <c r="F174" t="s">
         <v>337</v>
-      </c>
-      <c r="F174" t="s">
-        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -7738,10 +7708,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>338</v>
+      </c>
+      <c r="F175" t="s">
         <v>339</v>
-      </c>
-      <c r="F175" t="s">
-        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7767,10 +7737,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>340</v>
+      </c>
+      <c r="F176" t="s">
         <v>341</v>
-      </c>
-      <c r="F176" t="s">
-        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7796,10 +7766,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>342</v>
+      </c>
+      <c r="F177" t="s">
         <v>343</v>
-      </c>
-      <c r="F177" t="s">
-        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7825,10 +7795,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>344</v>
+      </c>
+      <c r="F178" t="s">
         <v>345</v>
-      </c>
-      <c r="F178" t="s">
-        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7854,10 +7824,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>346</v>
+      </c>
+      <c r="F179" t="s">
         <v>347</v>
-      </c>
-      <c r="F179" t="s">
-        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7883,10 +7853,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>348</v>
+      </c>
+      <c r="F180" t="s">
         <v>349</v>
-      </c>
-      <c r="F180" t="s">
-        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7912,10 +7882,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>350</v>
+      </c>
+      <c r="F181" t="s">
         <v>351</v>
-      </c>
-      <c r="F181" t="s">
-        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7941,10 +7911,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>352</v>
+      </c>
+      <c r="F182" t="s">
         <v>353</v>
-      </c>
-      <c r="F182" t="s">
-        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7970,10 +7940,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>354</v>
+      </c>
+      <c r="F183" t="s">
         <v>355</v>
-      </c>
-      <c r="F183" t="s">
-        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7999,10 +7969,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>356</v>
+      </c>
+      <c r="F184" t="s">
         <v>357</v>
-      </c>
-      <c r="F184" t="s">
-        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8028,10 +7998,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>358</v>
+      </c>
+      <c r="F185" t="s">
         <v>359</v>
-      </c>
-      <c r="F185" t="s">
-        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8057,10 +8027,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>360</v>
+      </c>
+      <c r="F186" t="s">
         <v>361</v>
-      </c>
-      <c r="F186" t="s">
-        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -8086,10 +8056,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>362</v>
+      </c>
+      <c r="F187" t="s">
         <v>363</v>
-      </c>
-      <c r="F187" t="s">
-        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -8115,10 +8085,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>364</v>
+      </c>
+      <c r="F188" t="s">
         <v>365</v>
-      </c>
-      <c r="F188" t="s">
-        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8144,10 +8114,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>148</v>
+      </c>
+      <c r="F189" t="s">
         <v>149</v>
-      </c>
-      <c r="F189" t="s">
-        <v>150</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8173,10 +8143,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>366</v>
+      </c>
+      <c r="F190" t="s">
         <v>367</v>
-      </c>
-      <c r="F190" t="s">
-        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8202,10 +8172,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>368</v>
+      </c>
+      <c r="F191" t="s">
         <v>369</v>
-      </c>
-      <c r="F191" t="s">
-        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8231,10 +8201,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>370</v>
+      </c>
+      <c r="F192" t="s">
         <v>371</v>
-      </c>
-      <c r="F192" t="s">
-        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8260,10 +8230,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>372</v>
+      </c>
+      <c r="F193" t="s">
         <v>373</v>
-      </c>
-      <c r="F193" t="s">
-        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8289,10 +8259,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>374</v>
+      </c>
+      <c r="F194" t="s">
         <v>375</v>
-      </c>
-      <c r="F194" t="s">
-        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8318,10 +8288,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>376</v>
+      </c>
+      <c r="F195" t="s">
         <v>377</v>
-      </c>
-      <c r="F195" t="s">
-        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8347,10 +8317,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>378</v>
+      </c>
+      <c r="F196" t="s">
         <v>379</v>
-      </c>
-      <c r="F196" t="s">
-        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -8376,10 +8346,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>380</v>
+      </c>
+      <c r="F197" t="s">
         <v>381</v>
-      </c>
-      <c r="F197" t="s">
-        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8405,10 +8375,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>382</v>
+      </c>
+      <c r="F198" t="s">
         <v>383</v>
-      </c>
-      <c r="F198" t="s">
-        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8434,10 +8404,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>384</v>
+      </c>
+      <c r="F199" t="s">
         <v>385</v>
-      </c>
-      <c r="F199" t="s">
-        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8463,10 +8433,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>386</v>
+      </c>
+      <c r="F200" t="s">
         <v>387</v>
-      </c>
-      <c r="F200" t="s">
-        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8492,10 +8462,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>388</v>
+      </c>
+      <c r="F201" t="s">
         <v>389</v>
-      </c>
-      <c r="F201" t="s">
-        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8521,10 +8491,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>390</v>
+      </c>
+      <c r="F202" t="s">
         <v>391</v>
-      </c>
-      <c r="F202" t="s">
-        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8550,10 +8520,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>392</v>
+      </c>
+      <c r="F203" t="s">
         <v>393</v>
-      </c>
-      <c r="F203" t="s">
-        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8579,10 +8549,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>394</v>
+      </c>
+      <c r="F204" t="s">
         <v>395</v>
-      </c>
-      <c r="F204" t="s">
-        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8608,10 +8578,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>396</v>
+      </c>
+      <c r="F205" t="s">
         <v>397</v>
-      </c>
-      <c r="F205" t="s">
-        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8637,10 +8607,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>398</v>
+      </c>
+      <c r="F206" t="s">
         <v>399</v>
-      </c>
-      <c r="F206" t="s">
-        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8666,10 +8636,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>400</v>
+      </c>
+      <c r="F207" t="s">
         <v>401</v>
-      </c>
-      <c r="F207" t="s">
-        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8695,10 +8665,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>402</v>
+      </c>
+      <c r="F208" t="s">
         <v>403</v>
-      </c>
-      <c r="F208" t="s">
-        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8724,10 +8694,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>404</v>
+      </c>
+      <c r="F209" t="s">
         <v>405</v>
-      </c>
-      <c r="F209" t="s">
-        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8753,10 +8723,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>406</v>
+      </c>
+      <c r="F210" t="s">
         <v>407</v>
-      </c>
-      <c r="F210" t="s">
-        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8782,10 +8752,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>408</v>
+      </c>
+      <c r="F211" t="s">
         <v>409</v>
-      </c>
-      <c r="F211" t="s">
-        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8811,10 +8781,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>410</v>
+      </c>
+      <c r="F212" t="s">
         <v>411</v>
-      </c>
-      <c r="F212" t="s">
-        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8840,10 +8810,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>412</v>
+      </c>
+      <c r="F213" t="s">
         <v>413</v>
-      </c>
-      <c r="F213" t="s">
-        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8869,10 +8839,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>414</v>
+      </c>
+      <c r="F214" t="s">
         <v>415</v>
-      </c>
-      <c r="F214" t="s">
-        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8898,10 +8868,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>416</v>
+      </c>
+      <c r="F215" t="s">
         <v>417</v>
-      </c>
-      <c r="F215" t="s">
-        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8927,10 +8897,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>418</v>
+      </c>
+      <c r="F216" t="s">
         <v>419</v>
-      </c>
-      <c r="F216" t="s">
-        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8956,10 +8926,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>420</v>
+      </c>
+      <c r="F217" t="s">
         <v>421</v>
-      </c>
-      <c r="F217" t="s">
-        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8985,10 +8955,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>422</v>
+      </c>
+      <c r="F218" t="s">
         <v>423</v>
-      </c>
-      <c r="F218" t="s">
-        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9014,10 +8984,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>424</v>
+      </c>
+      <c r="F219" t="s">
         <v>425</v>
-      </c>
-      <c r="F219" t="s">
-        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9043,10 +9013,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>426</v>
+      </c>
+      <c r="F220" t="s">
         <v>427</v>
-      </c>
-      <c r="F220" t="s">
-        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9072,10 +9042,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>428</v>
+      </c>
+      <c r="F221" t="s">
         <v>429</v>
-      </c>
-      <c r="F221" t="s">
-        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9101,10 +9071,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>430</v>
+      </c>
+      <c r="F222" t="s">
         <v>431</v>
-      </c>
-      <c r="F222" t="s">
-        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9130,10 +9100,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>432</v>
+      </c>
+      <c r="F223" t="s">
         <v>433</v>
-      </c>
-      <c r="F223" t="s">
-        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -9159,10 +9129,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>434</v>
+      </c>
+      <c r="F224" t="s">
         <v>435</v>
-      </c>
-      <c r="F224" t="s">
-        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9188,10 +9158,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>436</v>
+      </c>
+      <c r="F225" t="s">
         <v>437</v>
-      </c>
-      <c r="F225" t="s">
-        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9217,10 +9187,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>438</v>
+      </c>
+      <c r="F226" t="s">
         <v>439</v>
-      </c>
-      <c r="F226" t="s">
-        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9246,10 +9216,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>440</v>
+      </c>
+      <c r="F227" t="s">
         <v>441</v>
-      </c>
-      <c r="F227" t="s">
-        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -9275,10 +9245,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>442</v>
+      </c>
+      <c r="F228" t="s">
         <v>443</v>
-      </c>
-      <c r="F228" t="s">
-        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9304,10 +9274,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>444</v>
+      </c>
+      <c r="F229" t="s">
         <v>445</v>
-      </c>
-      <c r="F229" t="s">
-        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9333,10 +9303,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>446</v>
+      </c>
+      <c r="F230" t="s">
         <v>447</v>
-      </c>
-      <c r="F230" t="s">
-        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9362,10 +9332,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>448</v>
+      </c>
+      <c r="F231" t="s">
         <v>449</v>
-      </c>
-      <c r="F231" t="s">
-        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9391,10 +9361,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>450</v>
+      </c>
+      <c r="F232" t="s">
         <v>451</v>
-      </c>
-      <c r="F232" t="s">
-        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9420,10 +9390,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>452</v>
+      </c>
+      <c r="F233" t="s">
         <v>453</v>
-      </c>
-      <c r="F233" t="s">
-        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9449,10 +9419,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>454</v>
+      </c>
+      <c r="F234" t="s">
         <v>455</v>
-      </c>
-      <c r="F234" t="s">
-        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9478,10 +9448,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>456</v>
+      </c>
+      <c r="F235" t="s">
         <v>457</v>
-      </c>
-      <c r="F235" t="s">
-        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9507,10 +9477,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>458</v>
+      </c>
+      <c r="F236" t="s">
         <v>459</v>
-      </c>
-      <c r="F236" t="s">
-        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9536,10 +9506,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>460</v>
+      </c>
+      <c r="F237" t="s">
         <v>461</v>
-      </c>
-      <c r="F237" t="s">
-        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9565,10 +9535,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>462</v>
+      </c>
+      <c r="F238" t="s">
         <v>463</v>
-      </c>
-      <c r="F238" t="s">
-        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9594,10 +9564,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>464</v>
+      </c>
+      <c r="F239" t="s">
         <v>465</v>
-      </c>
-      <c r="F239" t="s">
-        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9623,10 +9593,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>466</v>
+      </c>
+      <c r="F240" t="s">
         <v>467</v>
-      </c>
-      <c r="F240" t="s">
-        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9652,10 +9622,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>468</v>
+      </c>
+      <c r="F241" t="s">
         <v>469</v>
-      </c>
-      <c r="F241" t="s">
-        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9681,10 +9651,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>470</v>
+      </c>
+      <c r="F242" t="s">
         <v>471</v>
-      </c>
-      <c r="F242" t="s">
-        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9710,10 +9680,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>472</v>
+      </c>
+      <c r="F243" t="s">
         <v>473</v>
-      </c>
-      <c r="F243" t="s">
-        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9739,10 +9709,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>474</v>
+      </c>
+      <c r="F244" t="s">
         <v>475</v>
-      </c>
-      <c r="F244" t="s">
-        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9768,10 +9738,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>476</v>
+      </c>
+      <c r="F245" t="s">
         <v>477</v>
-      </c>
-      <c r="F245" t="s">
-        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9797,10 +9767,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>478</v>
+      </c>
+      <c r="F246" t="s">
         <v>479</v>
-      </c>
-      <c r="F246" t="s">
-        <v>480</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9826,10 +9796,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>480</v>
+      </c>
+      <c r="F247" t="s">
         <v>481</v>
-      </c>
-      <c r="F247" t="s">
-        <v>482</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9855,10 +9825,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>482</v>
+      </c>
+      <c r="F248" t="s">
         <v>483</v>
-      </c>
-      <c r="F248" t="s">
-        <v>484</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9884,10 +9854,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>484</v>
+      </c>
+      <c r="F249" t="s">
         <v>485</v>
-      </c>
-      <c r="F249" t="s">
-        <v>486</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9913,10 +9883,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>486</v>
+      </c>
+      <c r="F250" t="s">
         <v>487</v>
-      </c>
-      <c r="F250" t="s">
-        <v>488</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9942,10 +9912,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>488</v>
+      </c>
+      <c r="F251" t="s">
         <v>489</v>
-      </c>
-      <c r="F251" t="s">
-        <v>490</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9971,10 +9941,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>490</v>
+      </c>
+      <c r="F252" t="s">
         <v>491</v>
-      </c>
-      <c r="F252" t="s">
-        <v>492</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10000,10 +9970,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>492</v>
+      </c>
+      <c r="F253" t="s">
         <v>493</v>
-      </c>
-      <c r="F253" t="s">
-        <v>494</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10029,10 +9999,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>494</v>
+      </c>
+      <c r="F254" t="s">
         <v>495</v>
-      </c>
-      <c r="F254" t="s">
-        <v>496</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10058,10 +10028,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>496</v>
+      </c>
+      <c r="F255" t="s">
         <v>497</v>
-      </c>
-      <c r="F255" t="s">
-        <v>498</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10087,10 +10057,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>498</v>
+      </c>
+      <c r="F256" t="s">
         <v>499</v>
-      </c>
-      <c r="F256" t="s">
-        <v>500</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10116,10 +10086,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>500</v>
+      </c>
+      <c r="F257" t="s">
         <v>501</v>
-      </c>
-      <c r="F257" t="s">
-        <v>502</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -10145,10 +10115,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>502</v>
+      </c>
+      <c r="F258" t="s">
         <v>503</v>
-      </c>
-      <c r="F258" t="s">
-        <v>504</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10174,10 +10144,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>504</v>
+      </c>
+      <c r="F259" t="s">
         <v>505</v>
-      </c>
-      <c r="F259" t="s">
-        <v>506</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10203,10 +10173,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>506</v>
+      </c>
+      <c r="F260" t="s">
         <v>507</v>
-      </c>
-      <c r="F260" t="s">
-        <v>508</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -10232,10 +10202,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>508</v>
+      </c>
+      <c r="F261" t="s">
         <v>509</v>
-      </c>
-      <c r="F261" t="s">
-        <v>510</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10261,10 +10231,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>510</v>
+      </c>
+      <c r="F262" t="s">
         <v>511</v>
-      </c>
-      <c r="F262" t="s">
-        <v>512</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10290,10 +10260,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>512</v>
+      </c>
+      <c r="F263" t="s">
         <v>513</v>
-      </c>
-      <c r="F263" t="s">
-        <v>514</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10319,10 +10289,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>514</v>
+      </c>
+      <c r="F264" t="s">
         <v>515</v>
-      </c>
-      <c r="F264" t="s">
-        <v>516</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10348,10 +10318,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>516</v>
+      </c>
+      <c r="F265" t="s">
         <v>517</v>
-      </c>
-      <c r="F265" t="s">
-        <v>518</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10377,10 +10347,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>518</v>
+      </c>
+      <c r="F266" t="s">
         <v>519</v>
-      </c>
-      <c r="F266" t="s">
-        <v>520</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10406,10 +10376,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>520</v>
+      </c>
+      <c r="F267" t="s">
         <v>521</v>
-      </c>
-      <c r="F267" t="s">
-        <v>522</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10435,10 +10405,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>522</v>
+      </c>
+      <c r="F268" t="s">
         <v>523</v>
-      </c>
-      <c r="F268" t="s">
-        <v>524</v>
       </c>
       <c r="G268" t="n">
         <v>3</v>
@@ -10464,10 +10434,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>524</v>
+      </c>
+      <c r="F269" t="s">
         <v>525</v>
-      </c>
-      <c r="F269" t="s">
-        <v>526</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10493,10 +10463,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>526</v>
+      </c>
+      <c r="F270" t="s">
         <v>527</v>
-      </c>
-      <c r="F270" t="s">
-        <v>528</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10522,10 +10492,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>528</v>
+      </c>
+      <c r="F271" t="s">
         <v>529</v>
-      </c>
-      <c r="F271" t="s">
-        <v>530</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10551,10 +10521,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>530</v>
+      </c>
+      <c r="F272" t="s">
         <v>531</v>
-      </c>
-      <c r="F272" t="s">
-        <v>532</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10580,10 +10550,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>532</v>
+      </c>
+      <c r="F273" t="s">
         <v>533</v>
-      </c>
-      <c r="F273" t="s">
-        <v>534</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10609,10 +10579,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>534</v>
+      </c>
+      <c r="F274" t="s">
         <v>535</v>
-      </c>
-      <c r="F274" t="s">
-        <v>536</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10638,10 +10608,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>536</v>
+      </c>
+      <c r="F275" t="s">
         <v>537</v>
-      </c>
-      <c r="F275" t="s">
-        <v>538</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10667,10 +10637,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>538</v>
+      </c>
+      <c r="F276" t="s">
         <v>539</v>
-      </c>
-      <c r="F276" t="s">
-        <v>540</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10696,10 +10666,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>540</v>
+      </c>
+      <c r="F277" t="s">
         <v>541</v>
-      </c>
-      <c r="F277" t="s">
-        <v>542</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10725,10 +10695,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>542</v>
+      </c>
+      <c r="F278" t="s">
         <v>543</v>
-      </c>
-      <c r="F278" t="s">
-        <v>544</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10754,10 +10724,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>544</v>
+      </c>
+      <c r="F279" t="s">
         <v>545</v>
-      </c>
-      <c r="F279" t="s">
-        <v>546</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -10783,10 +10753,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>546</v>
+      </c>
+      <c r="F280" t="s">
         <v>547</v>
-      </c>
-      <c r="F280" t="s">
-        <v>548</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10812,10 +10782,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>548</v>
+      </c>
+      <c r="F281" t="s">
         <v>549</v>
-      </c>
-      <c r="F281" t="s">
-        <v>550</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -10841,10 +10811,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>550</v>
+      </c>
+      <c r="F282" t="s">
         <v>551</v>
-      </c>
-      <c r="F282" t="s">
-        <v>552</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -10870,10 +10840,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>552</v>
+      </c>
+      <c r="F283" t="s">
         <v>553</v>
-      </c>
-      <c r="F283" t="s">
-        <v>554</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10899,10 +10869,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>554</v>
+      </c>
+      <c r="F284" t="s">
         <v>555</v>
-      </c>
-      <c r="F284" t="s">
-        <v>556</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10928,10 +10898,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>556</v>
+      </c>
+      <c r="F285" t="s">
         <v>557</v>
-      </c>
-      <c r="F285" t="s">
-        <v>558</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10957,10 +10927,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F286" t="s">
-        <v>560</v>
+        <v>119</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -10986,10 +10956,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F287" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11015,10 +10985,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F288" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -11044,10 +11014,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F289" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11073,10 +11043,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F290" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11102,10 +11072,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F291" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G291" t="n">
         <v>4</v>
@@ -11131,10 +11101,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F292" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11160,10 +11130,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F293" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -11189,10 +11159,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F294" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11218,10 +11188,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F295" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11247,10 +11217,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F296" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11276,10 +11246,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F297" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11305,10 +11275,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F298" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -11334,10 +11304,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F299" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11363,10 +11333,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F300" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -11392,10 +11362,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F301" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11421,10 +11391,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F302" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11450,10 +11420,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F303" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11479,10 +11449,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F304" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11508,10 +11478,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F305" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -11537,10 +11507,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F306" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11566,10 +11536,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F307" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11595,10 +11565,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F308" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11624,10 +11594,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F309" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11653,10 +11623,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F310" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -11682,10 +11652,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F311" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11711,10 +11681,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F312" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11740,10 +11710,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F313" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11769,10 +11739,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F314" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11798,10 +11768,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F315" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11827,10 +11797,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F316" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11856,10 +11826,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F317" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11885,10 +11855,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F318" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11914,10 +11884,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F319" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11943,10 +11913,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F320" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11972,10 +11942,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F321" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12001,10 +11971,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F322" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12030,10 +12000,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F323" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -12059,10 +12029,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F324" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12088,10 +12058,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F325" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12117,10 +12087,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F326" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12175,10 +12145,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F328" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12204,10 +12174,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F329" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G329" t="n">
         <v>16</v>
@@ -12233,10 +12203,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F330" t="s">
-        <v>646</v>
+        <v>14</v>
       </c>
       <c r="G330" t="n">
         <v>7</v>
@@ -12262,10 +12232,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F331" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12291,10 +12261,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F332" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12320,10 +12290,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F333" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="G333" t="n">
         <v>3</v>
@@ -12349,10 +12319,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F334" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12378,10 +12348,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F335" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12407,10 +12377,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F336" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12436,10 +12406,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F337" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12465,10 +12435,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F338" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12494,10 +12464,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F339" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12523,10 +12493,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F340" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12552,10 +12522,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F341" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -12581,10 +12551,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F342" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12610,10 +12580,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F343" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12668,10 +12638,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F345" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -12697,10 +12667,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F346" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12755,10 +12725,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F348" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="G348" t="n">
         <v>3</v>
@@ -12784,10 +12754,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F349" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12813,10 +12783,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F350" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -12842,10 +12812,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F351" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G351" t="n">
         <v>13</v>
@@ -12871,10 +12841,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F352" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -12900,10 +12870,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F353" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -12929,10 +12899,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F354" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="G354" t="n">
         <v>3</v>
@@ -12958,10 +12928,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F355" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12987,10 +12957,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F356" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13016,10 +12986,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F357" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -13045,10 +13015,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F358" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13074,10 +13044,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F359" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -13103,10 +13073,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F360" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13132,10 +13102,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F361" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13161,10 +13131,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F362" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -13190,10 +13160,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F363" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -13219,10 +13189,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F364" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -13248,10 +13218,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F365" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13277,10 +13247,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F366" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13306,10 +13276,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F367" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13335,10 +13305,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F368" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13364,10 +13334,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F369" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13393,10 +13363,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F370" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13422,10 +13392,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F371" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13451,10 +13421,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F372" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13480,10 +13450,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F373" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -13509,10 +13479,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F374" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13538,10 +13508,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F375" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13567,10 +13537,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F376" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13596,10 +13566,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F377" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13625,10 +13595,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F378" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13654,10 +13624,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F379" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13683,10 +13653,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F380" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13712,10 +13682,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F381" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13741,10 +13711,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F382" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13770,10 +13740,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F383" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13799,10 +13769,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F384" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13828,10 +13798,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F385" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -13857,10 +13827,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F386" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13886,10 +13856,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F387" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14002,10 +13972,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F391" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14089,10 +14059,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F394" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="G394" t="n">
         <v>3</v>
@@ -14118,10 +14088,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F395" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14147,10 +14117,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F396" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14176,10 +14146,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F397" t="s">
-        <v>758</v>
+        <v>692</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14205,10 +14175,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F398" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14234,10 +14204,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F399" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14263,10 +14233,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F400" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14321,10 +14291,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="F402" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14350,10 +14320,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="F403" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="G403" t="n">
         <v>3</v>
@@ -14379,10 +14349,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F404" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14408,10 +14378,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="F405" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14420,64 +14390,6 @@
         <v>4</v>
       </c>
       <c r="I405" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="s">
-        <v>0</v>
-      </c>
-      <c r="C406" t="s">
-        <v>1</v>
-      </c>
-      <c r="D406" t="n">
-        <v>405</v>
-      </c>
-      <c r="E406" t="s">
-        <v>767</v>
-      </c>
-      <c r="F406" t="s">
-        <v>768</v>
-      </c>
-      <c r="G406" t="n">
-        <v>12</v>
-      </c>
-      <c r="H406" t="s">
-        <v>4</v>
-      </c>
-      <c r="I406" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="s">
-        <v>0</v>
-      </c>
-      <c r="C407" t="s">
-        <v>1</v>
-      </c>
-      <c r="D407" t="n">
-        <v>406</v>
-      </c>
-      <c r="E407" t="s">
-        <v>767</v>
-      </c>
-      <c r="F407" t="s">
-        <v>769</v>
-      </c>
-      <c r="G407" t="n">
-        <v>1</v>
-      </c>
-      <c r="H407" t="s">
-        <v>4</v>
-      </c>
-      <c r="I407" t="n">
         <v>3</v>
       </c>
     </row>
